--- a/biology/Botanique/Oléastre_à_ombelles/Oléastre_à_ombelles.xlsx
+++ b/biology/Botanique/Oléastre_à_ombelles/Oléastre_à_ombelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ol%C3%A9astre_%C3%A0_ombelles</t>
+          <t>Oléastre_à_ombelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elaeagnus umbellata est une espèce de plante à fleurs de la famille des Elaeagnaceae. C'est un grand buisson ou un petit arbre à feuilles caduques  originaire d'Asie. Il est aussi connu des jardiniers sous le nom de chalef d'automne[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elaeagnus umbellata est une espèce de plante à fleurs de la famille des Elaeagnaceae. C'est un grand buisson ou un petit arbre à feuilles caduques  originaire d'Asie. Il est aussi connu des jardiniers sous le nom de chalef d'automne. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ol%C3%A9astre_%C3%A0_ombelles</t>
+          <t>Oléastre_à_ombelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rusticité
 La plante est réputée rustique des zones USDA 4a à 8b, elle semble en effet mal supporter les étés en zone 9 et au-delà si elle n'est pas à mi-ombre.
 Feuilles et fruits
 Le feuillage est vert bleuté comme argenté, la plante produit de nombreuses baies de 8 mm environ en grappes plus ou moins denses à l'intérieur du feuillage.
-Le fruit est improprement appelé olive d'automne d'après le nom vernaculaire anglais « autumn olive », bien qu'il n'ait rien à voir avec l'olive, fruit de l'Olivier. Le terme du Japon « baie d'argent » (ou « Masiro gumi »[3]),  décrit bien son aspect précieux de petite baie pleine de points argentés. Le terme « chalef  argenté », elaeagnus, se rencontre également.
+Le fruit est improprement appelé olive d'automne d'après le nom vernaculaire anglais « autumn olive », bien qu'il n'ait rien à voir avec l'olive, fruit de l'Olivier. Le terme du Japon « baie d'argent » (ou « Masiro gumi »),  décrit bien son aspect précieux de petite baie pleine de points argentés. Le terme « chalef  argenté », elaeagnus, se rencontre également.
 Le fruit est aromatique et tanique avant maturité. À maturité complète, en décembre — qui se constate par sa facilité à le cueillir — il est doux et très apprécié.
-Dans la Revue horticole de 1901, E. Jouin prétend  que le fruit « n'est comestible qu'après avoir subi quelques degrés de froid »[3], ce qui ne semble pas vérifié dans les pays à automne chaud, Californie et Sud de l'Europe.
+Dans la Revue horticole de 1901, E. Jouin prétend  que le fruit « n'est comestible qu'après avoir subi quelques degrés de froid », ce qui ne semble pas vérifié dans les pays à automne chaud, Californie et Sud de l'Europe.
 Vertus médicinales
 Bien qu'il ne soit pas classé « superfruit » aux États-Unis, où la plante est qualifiée d'invasive, le fruit de l'Eleagnus umbellata possède des vertus anti-oxydantes notables : il contient 0,15 à 0,5 % de lycopène, qui aurait une action préventive contre le cancer de la prostate notamment, il constitue également un apport en flavonoïde[réf. nécessaire].
 </t>
